--- a/www/ig/fhir/core/observations-summary.xlsx
+++ b/www/ig/fhir/core/observations-summary.xlsx
@@ -104,7 +104,7 @@
     <t>fr-core-observation-bp</t>
   </si>
   <si>
-    <t>FR Core Observation Bp Profile</t>
+    <t>FR Core Observation Blood Pressure Profile</t>
   </si>
   <si>
     <t>null#85354-9</t>
@@ -143,7 +143,7 @@
     <t>fr-core-observation-resp-rate</t>
   </si>
   <si>
-    <t>FR Core Oservation Resp Rate Profile</t>
+    <t>FR Core Observation Respiratory Rate Profile</t>
   </si>
   <si>
     <t>null#9279-1</t>
